--- a/data/Biomass_composition.xlsx
+++ b/data/Biomass_composition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bisbii\PythonProjects\model_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2491AFBC-CF43-4854-9218-0A93E3FED037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB8CE9B-DDB5-4382-A067-746493E8B842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macromolecular Composition" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="535">
   <si>
     <t>g/gDCW</t>
   </si>
@@ -1686,6 +1686,12 @@
   </si>
   <si>
     <t>g/gDW2</t>
+  </si>
+  <si>
+    <t>max carbs</t>
+  </si>
+  <si>
+    <t>soluble</t>
   </si>
 </sst>
 </file>
@@ -2310,15 +2316,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="166" formatCode="0.00000"/>
     </dxf>
     <dxf>
@@ -2344,6 +2341,15 @@
           <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2699,8 +2705,8 @@
     <tableColumn id="4" xr3:uid="{559CC120-24BE-4374-8E79-D1B44B0CFAA3}" name="Reduced MW"/>
     <tableColumn id="5" xr3:uid="{7F8E2606-94C5-49F5-A463-001394855063}" name="mol/mole-Cofactor"/>
     <tableColumn id="6" xr3:uid="{DEF98CF4-ACAE-4C1F-B46A-C03C499FEF97}" name="gmetabolite/ge-Cofactor"/>
-    <tableColumn id="7" xr3:uid="{F3550C60-2C03-40AE-B65C-CF9C869929FA}" name="mmolmetabolite/ge-Cofactor" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{8A9553C4-02C7-4839-8445-47C770CF3BF0}" name="gmetabolite/gDW" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F3550C60-2C03-40AE-B65C-CF9C869929FA}" name="mmolmetabolite/ge-Cofactor" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8A9553C4-02C7-4839-8445-47C770CF3BF0}" name="gmetabolite/gDW" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2837,13 +2843,13 @@
     <tableColumn id="20" xr3:uid="{5321F775-DCFA-4809-9AFA-C0BD62C17388}" name="mg/gMM" dataDxfId="8">
       <calculatedColumnFormula>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{70C9B5B8-88CC-4C4F-8DEA-C1491A61CCEC}" name="g/gDW2" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{70C9B5B8-88CC-4C4F-8DEA-C1491A61CCEC}" name="g/gDW2" dataDxfId="7">
       <calculatedColumnFormula>Table7[[#This Row],[g/gDW]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E86A0115-F2DE-4234-9A19-AAC6F53B8B57}" name="gM/gMM" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{E86A0115-F2DE-4234-9A19-AAC6F53B8B57}" name="gM/gMM" dataDxfId="6">
       <calculatedColumnFormula>Table7[[#This Row],[g/gDW2]]/$R$12</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8A438586-5B82-4DC7-8BFD-5A492222E39C}" name="mmolM/gMM" dataDxfId="0">
+    <tableColumn id="11" xr3:uid="{8A438586-5B82-4DC7-8BFD-5A492222E39C}" name="mmolM/gMM" dataDxfId="5">
       <calculatedColumnFormula>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2861,9 +2867,9 @@
     <tableColumn id="4" xr3:uid="{EFBCA1AC-A49B-4835-BD8F-C8ED24318EE4}" name="% (molar)"/>
     <tableColumn id="5" xr3:uid="{138F6833-EFF1-4489-B8B7-8F8801BB08A1}" name="mol M / mol MM"/>
     <tableColumn id="6" xr3:uid="{BCCBBB05-F485-482F-977D-E22C1F9171AC}" name="g/molM"/>
-    <tableColumn id="7" xr3:uid="{2D0ED677-49CD-4530-A4CB-8E854404F4F3}" name="mmol M/gMM" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{76A3A56E-B60B-45B3-AC1C-E55732BF706D}" name="mmol M/ gDW" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{1F5BDFF6-2905-47F5-BBCA-6E3683E465AC}" name="g/gDW" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{2D0ED677-49CD-4530-A4CB-8E854404F4F3}" name="mmol M/gMM" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{76A3A56E-B60B-45B3-AC1C-E55732BF706D}" name="mmol M/ gDW" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{1F5BDFF6-2905-47F5-BBCA-6E3683E465AC}" name="g/gDW" dataDxfId="2"/>
     <tableColumn id="10" xr3:uid="{38BD67F6-8E61-4B5A-B82D-F86A841ACE6C}" name="Column2">
       <calculatedColumnFormula>L8*1000</calculatedColumnFormula>
     </tableColumn>
@@ -3138,7 +3144,7 @@
   <dimension ref="B3:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6527,12 +6533,42 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="I6:I17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="E6:E17"/>
-    <mergeCell ref="F6:F17"/>
-    <mergeCell ref="G6:G17"/>
-    <mergeCell ref="H6:H17"/>
+    <mergeCell ref="I67:I90"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="E63:E66"/>
+    <mergeCell ref="F63:F66"/>
+    <mergeCell ref="G63:G66"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="B67:B90"/>
+    <mergeCell ref="E67:E90"/>
+    <mergeCell ref="F67:F90"/>
+    <mergeCell ref="G67:G90"/>
+    <mergeCell ref="H67:H90"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="B39:B58"/>
+    <mergeCell ref="E39:E58"/>
+    <mergeCell ref="F39:F58"/>
+    <mergeCell ref="G39:G58"/>
+    <mergeCell ref="H39:H58"/>
+    <mergeCell ref="I39:I58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
     <mergeCell ref="I22:I29"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="E18:E21"/>
@@ -6545,42 +6581,12 @@
     <mergeCell ref="F22:F29"/>
     <mergeCell ref="G22:G29"/>
     <mergeCell ref="H22:H29"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="B39:B58"/>
-    <mergeCell ref="E39:E58"/>
-    <mergeCell ref="F39:F58"/>
-    <mergeCell ref="G39:G58"/>
-    <mergeCell ref="H39:H58"/>
-    <mergeCell ref="I39:I58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="I67:I90"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="E63:E66"/>
-    <mergeCell ref="F63:F66"/>
-    <mergeCell ref="G63:G66"/>
-    <mergeCell ref="H63:H66"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="B67:B90"/>
-    <mergeCell ref="E67:E90"/>
-    <mergeCell ref="F67:F90"/>
-    <mergeCell ref="G67:G90"/>
-    <mergeCell ref="H67:H90"/>
+    <mergeCell ref="I6:I17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="F6:F17"/>
+    <mergeCell ref="G6:G17"/>
+    <mergeCell ref="H6:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8482,7 +8488,7 @@
   <dimension ref="C1:AL222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -8637,6 +8643,10 @@
         <f>O4*'Macromolecular Composition'!$H$7</f>
         <v>1.3057017931404239E-2</v>
       </c>
+      <c r="T4" s="8">
+        <f>0.2-R16+Table8[[#This Row],[g M / g DW]]</f>
+        <v>0.10205701793140423</v>
+      </c>
     </row>
     <row r="5" spans="3:30">
       <c r="C5" s="8" t="s">
@@ -8697,6 +8707,10 @@
       <c r="R5" s="8">
         <f>O5*'Macromolecular Composition'!$H$7</f>
         <v>1.0033346912066697E-2</v>
+      </c>
+      <c r="T5" s="8">
+        <f>T4+SUM(R5:R15)</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="3:30">
@@ -20427,10 +20441,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3052ACEE-4180-40AA-90A3-9877406B1F04}">
-  <dimension ref="B6:K15"/>
+  <dimension ref="B6:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20714,6 +20728,41 @@
       <c r="J15">
         <f>J11-J9</f>
         <v>2.9832709062364562</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" t="s">
+        <v>533</v>
+      </c>
+      <c r="K19">
+        <v>72.739999999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11">
+      <c r="J20" t="s">
+        <v>534</v>
+      </c>
+      <c r="K20">
+        <f>SUM(K7:K8,K10)*100</f>
+        <v>19.78357483980805</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11">
+      <c r="K21">
+        <f>K19-K20</f>
+        <v>52.956425160191941</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11">
+      <c r="K22">
+        <f>K21-K9*100</f>
+        <v>23.239999999999984</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11">
+      <c r="K23">
+        <f>K22/100</f>
+        <v>0.23239999999999983</v>
       </c>
     </row>
   </sheetData>
@@ -20970,8 +21019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B1A99-6869-4CA8-8AFF-CDE465AFCC99}">
   <dimension ref="A2:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y13" sqref="Y13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/Biomass_composition.xlsx
+++ b/data/Biomass_composition.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bisbii\PythonProjects\model_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB8CE9B-DDB5-4382-A067-746493E8B842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB5AD3D-E09F-4A0A-AA5C-8304B21146F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Macromolecular Composition" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1385" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="546">
   <si>
     <t>g/gDCW</t>
   </si>
@@ -1692,6 +1692,39 @@
   </si>
   <si>
     <t>soluble</t>
+  </si>
+  <si>
+    <t>Antheraxanthin</t>
+  </si>
+  <si>
+    <t>C08579</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/plphys/article/132/1/352/6111843#265242456</t>
+  </si>
+  <si>
+    <t>Pmax</t>
+  </si>
+  <si>
+    <t>mmolchl/gDW</t>
+  </si>
+  <si>
+    <t>mmolO2/molchl/s</t>
+  </si>
+  <si>
+    <t>mmolO2/gDW/s</t>
+  </si>
+  <si>
+    <t>mmolO2/gDW/d</t>
+  </si>
+  <si>
+    <t>g/gDW22</t>
+  </si>
+  <si>
+    <t>gM/gMM3</t>
+  </si>
+  <si>
+    <t>mmolM/gMM4</t>
   </si>
 </sst>
 </file>
@@ -2213,7 +2246,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2263,6 +2296,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="48">
     <cellStyle name="20% - Accent1 2" xfId="3" xr:uid="{D8599B3A-99A3-435E-A7AF-2870A3D9EBB5}"/>
@@ -2314,7 +2348,16 @@
     <cellStyle name="Total 2" xfId="44" xr:uid="{EA747128-D899-410C-8F86-E14B646829B1}"/>
     <cellStyle name="Warning Text 2" xfId="45" xr:uid="{B3F6E56D-3AF1-4D91-BA55-AB29B2D1968A}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="44">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="166" formatCode="0.00000"/>
     </dxf>
@@ -2615,8 +2658,8 @@
       <sheetName val="Complete Table"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="13">
           <cell r="J13">
@@ -2631,8 +2674,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="25">
           <cell r="B25" t="str">
@@ -2655,13 +2698,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2680,14 +2723,14 @@
     <tableColumn id="4" xr3:uid="{282B662E-1C04-4975-9036-09F0A740BF6C}" name="MW"/>
     <tableColumn id="5" xr3:uid="{E3BE2E37-7542-40F8-96A6-B980910E10B8}" name="MW (-H2O)"/>
     <tableColumn id="6" xr3:uid="{4AEE3195-127D-4DB8-B409-54EE1C6A4B6B}" name="mmol/gMM"/>
-    <tableColumn id="7" xr3:uid="{66FF8ADE-7C3E-40FF-B3C3-0DAC2A5A1A2E}" name="g/gDW" dataDxfId="40"/>
-    <tableColumn id="8" xr3:uid="{6B160A2D-9705-4B12-AE33-FF5D9A536EF9}" name="g/gDW (normalized)" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{66FF8ADE-7C3E-40FF-B3C3-0DAC2A5A1A2E}" name="g/gDW" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{6B160A2D-9705-4B12-AE33-FF5D9A536EF9}" name="g/gDW (normalized)" dataDxfId="42">
       <calculatedColumnFormula>Table2[[#This Row],[g/gDW]]*$J$24/'Macromolecular Composition'!$H$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E859E32B-49B9-47E5-97C6-D2BC5F906D59}" name="mmol/gDW" dataDxfId="38">
+    <tableColumn id="9" xr3:uid="{E859E32B-49B9-47E5-97C6-D2BC5F906D59}" name="mmol/gDW" dataDxfId="41">
       <calculatedColumnFormula>I4/H4*1000/'Macromolecular Composition'!$H$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{66ED1B94-3680-455D-9FB3-DA2E0BC590E4}" name="mmol/gDW2" dataDxfId="37">
+    <tableColumn id="10" xr3:uid="{66ED1B94-3680-455D-9FB3-DA2E0BC590E4}" name="mmol/gDW2" dataDxfId="40">
       <calculatedColumnFormula>Table2[[#This Row],[mmol/gDW]]/$K$24</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2705,8 +2748,8 @@
     <tableColumn id="4" xr3:uid="{559CC120-24BE-4374-8E79-D1B44B0CFAA3}" name="Reduced MW"/>
     <tableColumn id="5" xr3:uid="{7F8E2606-94C5-49F5-A463-001394855063}" name="mol/mole-Cofactor"/>
     <tableColumn id="6" xr3:uid="{DEF98CF4-ACAE-4C1F-B46A-C03C499FEF97}" name="gmetabolite/ge-Cofactor"/>
-    <tableColumn id="7" xr3:uid="{F3550C60-2C03-40AE-B65C-CF9C869929FA}" name="mmolmetabolite/ge-Cofactor" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{8A9553C4-02C7-4839-8445-47C770CF3BF0}" name="gmetabolite/gDW" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{F3550C60-2C03-40AE-B65C-CF9C869929FA}" name="mmolmetabolite/ge-Cofactor" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{8A9553C4-02C7-4839-8445-47C770CF3BF0}" name="gmetabolite/gDW" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2745,7 +2788,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1CD81B9A-048C-4F6D-BFB2-2F29F2F0A3A7}" name="Table5" displayName="Table5" ref="D6:I13" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1CD81B9A-048C-4F6D-BFB2-2F29F2F0A3A7}" name="Table5" displayName="Table5" ref="D6:I13" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="D6:I13" xr:uid="{1CD81B9A-048C-4F6D-BFB2-2F29F2F0A3A7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2AC76093-B91D-419A-AFE8-C373C36342AF}" name="Compound"/>
@@ -2760,25 +2803,25 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18B093C2-176F-4533-9CFE-749ADADAE0CF}" name="Table8" displayName="Table8" ref="C3:R16" totalsRowShown="0" headerRowDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{18B093C2-176F-4533-9CFE-749ADADAE0CF}" name="Table8" displayName="Table8" ref="C3:R16" totalsRowShown="0" headerRowDxfId="36">
   <autoFilter ref="C3:R16" xr:uid="{18B093C2-176F-4533-9CFE-749ADADAE0CF}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{83C4A33C-627E-4353-8994-71BCACFCBEB4}" name="Component" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{F560B2BF-8D71-4BC8-B5FE-50B28CAABCB3}" name="KEGG ID" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{7DDF3223-59EB-4C4E-BA26-13FEBB05DE49}" name="molM/molMM of polar lipids [1]" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{DDF6F168-6254-428D-A8BD-E525DD47EB44}" name="mol/mol [2]" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{54711997-711E-45E3-891B-79649BAC62B0}" name="mol /mol % [3]" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{95EB541F-E136-40B0-B0F4-1FFEF473DE7A}" name="mol/mol" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{43349913-53D8-4BB6-82BD-21A735ABD8A4}" name="mol/mol3" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{E52F999F-0965-4A32-BE30-F118B7F903B2}" name="mol/mol4" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{F60F4AFA-F8EA-4D04-AA35-D1340AB6FE98}" name="mol/mol (average)" dataDxfId="24"/>
-    <tableColumn id="10" xr3:uid="{3AADCC2F-DBD0-40C7-9EB4-A51432943C33}" name="molM/molMM (normalized)" dataDxfId="23"/>
-    <tableColumn id="11" xr3:uid="{2D7F340F-81F9-434D-AC0B-48437626EB29}" name="Average MW" dataDxfId="22"/>
-    <tableColumn id="12" xr3:uid="{E0C86DA5-F30B-42B9-AF80-20EC8E4C89FF}" name="gM/molMM" dataDxfId="21"/>
-    <tableColumn id="13" xr3:uid="{25C2F12D-E567-4605-933B-CBFA5A4EA3AC}" name="g M/g MM" dataDxfId="20"/>
-    <tableColumn id="14" xr3:uid="{8F631D0D-0D0E-4599-AA15-F43BDB36B119}" name="mmol M/g MM" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{3DF379D4-440C-4850-B999-7DF1C1FD29C0}" name="mmol M / gDW" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{0554DC90-52F4-46E8-8BF5-021518E8B7DE}" name="g M / g DW" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{83C4A33C-627E-4353-8994-71BCACFCBEB4}" name="Component" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{F560B2BF-8D71-4BC8-B5FE-50B28CAABCB3}" name="KEGG ID" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{7DDF3223-59EB-4C4E-BA26-13FEBB05DE49}" name="molM/molMM of polar lipids [1]" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{DDF6F168-6254-428D-A8BD-E525DD47EB44}" name="mol/mol [2]" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{54711997-711E-45E3-891B-79649BAC62B0}" name="mol /mol % [3]" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{95EB541F-E136-40B0-B0F4-1FFEF473DE7A}" name="mol/mol" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{43349913-53D8-4BB6-82BD-21A735ABD8A4}" name="mol/mol3" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{E52F999F-0965-4A32-BE30-F118B7F903B2}" name="mol/mol4" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{F60F4AFA-F8EA-4D04-AA35-D1340AB6FE98}" name="mol/mol (average)" dataDxfId="27"/>
+    <tableColumn id="10" xr3:uid="{3AADCC2F-DBD0-40C7-9EB4-A51432943C33}" name="molM/molMM (normalized)" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{2D7F340F-81F9-434D-AC0B-48437626EB29}" name="Average MW" dataDxfId="25"/>
+    <tableColumn id="12" xr3:uid="{E0C86DA5-F30B-42B9-AF80-20EC8E4C89FF}" name="gM/molMM" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{25C2F12D-E567-4605-933B-CBFA5A4EA3AC}" name="g M/g MM" dataDxfId="23"/>
+    <tableColumn id="14" xr3:uid="{8F631D0D-0D0E-4599-AA15-F43BDB36B119}" name="mmol M/g MM" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{3DF379D4-440C-4850-B999-7DF1C1FD29C0}" name="mmol M / gDW" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{0554DC90-52F4-46E8-8BF5-021518E8B7DE}" name="g M / g DW" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2804,28 +2847,28 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67079717-C861-499A-8C93-0DECDC11A3DC}" name="Table4" displayName="Table4" ref="C6:K12" totalsRowShown="0" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{67079717-C861-499A-8C93-0DECDC11A3DC}" name="Table4" displayName="Table4" ref="C6:K12" totalsRowShown="0" dataDxfId="19">
   <autoFilter ref="C6:K12" xr:uid="{67079717-C861-499A-8C93-0DECDC11A3DC}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{16D0A08D-6A7C-4971-B672-B57B40CAC980}" name="Compound" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{FF6B412F-7CCE-4ECD-B786-76BF5F5D8E51}" name="Mol.Weight" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{16D0A08D-6A7C-4971-B672-B57B40CAC980}" name="Compound" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{FF6B412F-7CCE-4ECD-B786-76BF5F5D8E51}" name="Mol.Weight" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{AB3C1DD6-5E56-423D-9C77-3B2AE3970047}" name="% mol/mol"/>
     <tableColumn id="4" xr3:uid="{43E21B7B-D863-4B8E-BC6B-4797F37540D7}" name="mol/mol"/>
     <tableColumn id="5" xr3:uid="{CBA3BCF3-D3F4-400B-8812-7EA2CFD2D451}" name="gM/molM"/>
-    <tableColumn id="6" xr3:uid="{0529E601-9B90-4F1D-BCE2-C6030FC7FC91}" name="gM/gDW" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{0529E601-9B90-4F1D-BCE2-C6030FC7FC91}" name="gM/gDW" dataDxfId="16"/>
     <tableColumn id="7" xr3:uid="{15CB14D2-A1F5-433B-9C10-4139013B6C2D}" name="Column1"/>
-    <tableColumn id="8" xr3:uid="{5F3061DD-8BE8-4854-825B-62D7DAB2E27C}" name="mmolM/gMM" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{1F1F1867-7B0A-445E-A4B1-D7D2F9E08C5A}" name="mmol/gDW" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{5F3061DD-8BE8-4854-825B-62D7DAB2E27C}" name="mmolM/gMM" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{1F1F1867-7B0A-445E-A4B1-D7D2F9E08C5A}" name="mmol/gDW" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{574332D1-DFC0-442C-B6D7-9947FB251380}" name="Table7" displayName="Table7" ref="B3:T12" totalsRowShown="0">
-  <autoFilter ref="B3:T12" xr:uid="{574332D1-DFC0-442C-B6D7-9947FB251380}"/>
-  <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{F9C59071-89FA-4080-9504-8ED6BD46FA14}" name="Component" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{574332D1-DFC0-442C-B6D7-9947FB251380}" name="Table7" displayName="Table7" ref="B3:W13" totalsRowShown="0">
+  <autoFilter ref="B3:W13" xr:uid="{574332D1-DFC0-442C-B6D7-9947FB251380}"/>
+  <tableColumns count="22">
+    <tableColumn id="1" xr3:uid="{F9C59071-89FA-4080-9504-8ED6BD46FA14}" name="Component" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{51499AAD-A5C7-4427-B7F6-0B4A6110EC1A}" name="KEGG ID"/>
     <tableColumn id="3" xr3:uid="{96C5AF32-CE29-473F-BE72-E96B5AE36EBB}" name="Mol.Weight"/>
     <tableColumn id="4" xr3:uid="{052BC57B-A521-4A6E-A48D-CAA62371A946}" name="mg/gDW"/>
@@ -2837,21 +2880,24 @@
     <tableColumn id="14" xr3:uid="{72F3D8F2-0E59-4AA2-B5F5-2EFDDE538D45}" name="mmol/gDW9"/>
     <tableColumn id="15" xr3:uid="{909ADDCF-C2D3-4CC6-A175-DDA72F6EB528}" name="mol/mol"/>
     <tableColumn id="16" xr3:uid="{94D90AA2-0142-4DEF-AD65-5A9DCC38B6C0}" name="Column10"/>
-    <tableColumn id="17" xr3:uid="{3B39B16E-924C-4889-AE96-E79AB2F177F4}" name="mmol M/ gMM" dataDxfId="9"/>
+    <tableColumn id="17" xr3:uid="{3B39B16E-924C-4889-AE96-E79AB2F177F4}" name="mmol M/ gMM" dataDxfId="12"/>
     <tableColumn id="18" xr3:uid="{7E1829B6-DC4B-4AF8-810F-B9F94BBA267C}" name="mg / gDW"/>
     <tableColumn id="19" xr3:uid="{CD8584C7-CA7D-42F2-9CA2-38A9FED0A7C3}" name="g/gDW"/>
-    <tableColumn id="20" xr3:uid="{5321F775-DCFA-4809-9AFA-C0BD62C17388}" name="mg/gMM" dataDxfId="8">
+    <tableColumn id="20" xr3:uid="{5321F775-DCFA-4809-9AFA-C0BD62C17388}" name="mg/gMM" dataDxfId="11">
       <calculatedColumnFormula>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{70C9B5B8-88CC-4C4F-8DEA-C1491A61CCEC}" name="g/gDW2" dataDxfId="7">
+    <tableColumn id="6" xr3:uid="{70C9B5B8-88CC-4C4F-8DEA-C1491A61CCEC}" name="g/gDW2" dataDxfId="10">
       <calculatedColumnFormula>Table7[[#This Row],[g/gDW]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{E86A0115-F2DE-4234-9A19-AAC6F53B8B57}" name="gM/gMM" dataDxfId="6">
-      <calculatedColumnFormula>Table7[[#This Row],[g/gDW2]]/$R$12</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{E86A0115-F2DE-4234-9A19-AAC6F53B8B57}" name="gM/gMM" dataDxfId="9">
+      <calculatedColumnFormula>Table7[[#This Row],[g/gDW2]]/$R$13</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{8A438586-5B82-4DC7-8BFD-5A492222E39C}" name="mmolM/gMM" dataDxfId="5">
+    <tableColumn id="11" xr3:uid="{8A438586-5B82-4DC7-8BFD-5A492222E39C}" name="mmolM/gMM" dataDxfId="8">
       <calculatedColumnFormula>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="12" xr3:uid="{6B9CCB75-D9C4-416C-9908-18B47D66E1AB}" name="g/gDW22" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{5E1A304E-55F1-44A4-93B9-2555F7EE91E6}" name="gM/gMM3" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{FED4778F-C6E0-4C4F-8C98-EC5790C49070}" name="mmolM/gMM4" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2867,9 +2913,9 @@
     <tableColumn id="4" xr3:uid="{EFBCA1AC-A49B-4835-BD8F-C8ED24318EE4}" name="% (molar)"/>
     <tableColumn id="5" xr3:uid="{138F6833-EFF1-4489-B8B7-8F8801BB08A1}" name="mol M / mol MM"/>
     <tableColumn id="6" xr3:uid="{BCCBBB05-F485-482F-977D-E22C1F9171AC}" name="g/molM"/>
-    <tableColumn id="7" xr3:uid="{2D0ED677-49CD-4530-A4CB-8E854404F4F3}" name="mmol M/gMM" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{76A3A56E-B60B-45B3-AC1C-E55732BF706D}" name="mmol M/ gDW" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{1F5BDFF6-2905-47F5-BBCA-6E3683E465AC}" name="g/gDW" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2D0ED677-49CD-4530-A4CB-8E854404F4F3}" name="mmol M/gMM" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{76A3A56E-B60B-45B3-AC1C-E55732BF706D}" name="mmol M/ gDW" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{1F5BDFF6-2905-47F5-BBCA-6E3683E465AC}" name="g/gDW" dataDxfId="5"/>
     <tableColumn id="10" xr3:uid="{38BD67F6-8E61-4B5A-B82D-F86A841ACE6C}" name="Column2">
       <calculatedColumnFormula>L8*1000</calculatedColumnFormula>
     </tableColumn>
@@ -3144,7 +3190,7 @@
   <dimension ref="B3:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3375,16 +3421,16 @@
         <v>2</v>
       </c>
       <c r="F12" s="18">
-        <f>Pigments!O12/1000*100</f>
-        <v>1.5989828480501826</v>
+        <f>Pigments!O13/1000*100</f>
+        <v>1.6441989113730897</v>
       </c>
       <c r="G12" s="22">
         <f>F12/$F$15</f>
-        <v>1.5989828480501827E-2</v>
+        <v>1.6441989113730897E-2</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="1"/>
-        <v>1.598982848050183E-2</v>
+        <f>G12/$G$15</f>
+        <v>1.64419891137309E-2</v>
       </c>
       <c r="I12" s="8"/>
     </row>
@@ -3416,15 +3462,15 @@
       </c>
       <c r="F14" s="18">
         <f>100-SUM(F4:F8)-SUM(F11:F13)</f>
-        <v>2.7146208493989512</v>
+        <v>2.6694047860760435</v>
       </c>
       <c r="G14" s="22">
         <f t="shared" si="0"/>
-        <v>2.7146208493989511E-2</v>
+        <v>2.6694047860760434E-2</v>
       </c>
       <c r="H14" s="20">
         <f>G14/$G$15</f>
-        <v>2.7146208493989514E-2</v>
+        <v>2.6694047860760437E-2</v>
       </c>
       <c r="I14" s="8"/>
     </row>
@@ -4075,7 +4121,7 @@
       </c>
       <c r="J4" s="16">
         <f>H4*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="5" spans="3:16">
@@ -4104,7 +4150,7 @@
       </c>
       <c r="J5" s="16">
         <f>H5*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="6" spans="3:16">
@@ -4133,7 +4179,7 @@
       </c>
       <c r="J6" s="16">
         <f>H6*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="7" spans="3:16">
@@ -4162,7 +4208,7 @@
       </c>
       <c r="J7" s="16">
         <f>H7*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="8" spans="3:16">
@@ -4191,7 +4237,7 @@
       </c>
       <c r="J8" s="16">
         <f>H8*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="9" spans="3:16">
@@ -4220,7 +4266,7 @@
       </c>
       <c r="J9" s="16">
         <f>H9*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="10" spans="3:16">
@@ -4249,7 +4295,7 @@
       </c>
       <c r="J10" s="16">
         <f>H10*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="11" spans="3:16">
@@ -4278,7 +4324,7 @@
       </c>
       <c r="J11" s="16">
         <f>H11*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="12" spans="3:16">
@@ -4307,7 +4353,7 @@
       </c>
       <c r="J12" s="16">
         <f>H12*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="13" spans="3:16">
@@ -4336,7 +4382,7 @@
       </c>
       <c r="J13" s="16">
         <f>H13*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="14" spans="3:16">
@@ -4365,7 +4411,7 @@
       </c>
       <c r="J14" s="16">
         <f>H14*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="P14" s="21"/>
     </row>
@@ -4395,7 +4441,7 @@
       </c>
       <c r="J15" s="16">
         <f>H15*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="16" spans="3:16">
@@ -4424,7 +4470,7 @@
       </c>
       <c r="J16" s="16">
         <f>H16*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="17" spans="3:10">
@@ -4453,7 +4499,7 @@
       </c>
       <c r="J17" s="16">
         <f>H17*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="18" spans="3:10">
@@ -4482,7 +4528,7 @@
       </c>
       <c r="J18" s="16">
         <f>H18*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="19" spans="3:10">
@@ -4511,7 +4557,7 @@
       </c>
       <c r="J19" s="16">
         <f>H19*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="20" spans="3:10">
@@ -4540,7 +4586,7 @@
       </c>
       <c r="J20" s="16">
         <f>H20*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="21" spans="3:10">
@@ -4569,7 +4615,7 @@
       </c>
       <c r="J21" s="16">
         <f>H21*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="22" spans="3:10">
@@ -4598,7 +4644,7 @@
       </c>
       <c r="J22" s="16">
         <f>H22*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="23" spans="3:10">
@@ -4628,7 +4674,7 @@
       </c>
       <c r="J23" s="16">
         <f>H23*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="24" spans="3:10">
@@ -4657,7 +4703,7 @@
       </c>
       <c r="J24" s="16">
         <f>H24*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="25" spans="3:10">
@@ -4686,7 +4732,7 @@
       </c>
       <c r="J25" s="16">
         <f>H25*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="26" spans="3:10">
@@ -4715,7 +4761,7 @@
       </c>
       <c r="J26" s="16">
         <f>H26*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="27" spans="3:10">
@@ -4744,7 +4790,7 @@
       </c>
       <c r="J27" s="16">
         <f>H27*'Macromolecular Composition'!$H$14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
     </row>
     <row r="28" spans="3:10">
@@ -4762,7 +4808,7 @@
       </c>
       <c r="J28" s="16">
         <f>SUM(J4:J27)</f>
-        <v>2.7146208493989517E-2</v>
+        <v>2.669404786076043E-2</v>
       </c>
     </row>
     <row r="37" spans="9:10">
@@ -4934,7 +4980,7 @@
       </c>
       <c r="G6" s="29">
         <f>F6/$F$91</f>
-        <v>0.15759623029945746</v>
+        <v>0.15769746754342204</v>
       </c>
       <c r="H6" s="29">
         <f>SUM(D7:D17)</f>
@@ -5154,7 +5200,7 @@
       </c>
       <c r="G18" s="29">
         <f>F18/$F$91</f>
-        <v>0.28088439789197667</v>
+        <v>0.28106483344085498</v>
       </c>
       <c r="H18" s="29">
         <f>SUM(D18:D19,D21)</f>
@@ -5188,7 +5234,7 @@
       <c r="I19" s="28"/>
       <c r="M19" s="8">
         <f>E18-G18</f>
-        <v>0.21411560210802338</v>
+        <v>0.21393516655914507</v>
       </c>
       <c r="O19">
         <v>-0.29720000000000002</v>
@@ -5241,19 +5287,19 @@
       </c>
       <c r="D22" s="8">
         <f>Pigments!P4</f>
-        <v>5.9620000000000012E-3</v>
+        <v>5.9619999999999994E-3</v>
       </c>
       <c r="E22" s="29">
         <f>SUM(D22:D29)</f>
-        <v>1.5989828480501827E-2</v>
+        <v>1.5989828480501823E-2</v>
       </c>
       <c r="F22" s="29">
         <f>SUM(D22:D29)</f>
-        <v>1.5989828480501827E-2</v>
+        <v>1.5989828480501823E-2</v>
       </c>
       <c r="G22" s="29">
         <f>F22/$F$91</f>
-        <v>2.2702132357315219E-2</v>
+        <v>2.2716715836295687E-2</v>
       </c>
       <c r="H22" s="29" t="e">
         <f>SUM(D22:D24,D26:D28,#REF!)</f>
@@ -5282,7 +5328,7 @@
       </c>
       <c r="D23" s="8">
         <f>Pigments!P5</f>
-        <v>4.3194689265536679E-3</v>
+        <v>4.319468926553667E-3</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
@@ -5317,7 +5363,7 @@
       </c>
       <c r="D25" s="8">
         <f>Pigments!P7</f>
-        <v>9.7318264014466455E-4</v>
+        <v>9.7318264014466434E-4</v>
       </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
@@ -5333,7 +5379,7 @@
       </c>
       <c r="D26" s="8">
         <f>Pigments!P8</f>
-        <v>9.7318264014466455E-4</v>
+        <v>9.7318264014466434E-4</v>
       </c>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
@@ -5349,7 +5395,7 @@
       </c>
       <c r="D27" s="8">
         <f>Pigments!P9</f>
-        <v>1.9089240506329098E-4</v>
+        <v>1.9089240506329092E-4</v>
       </c>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
@@ -5365,7 +5411,7 @@
       </c>
       <c r="D28" s="8">
         <f>Pigments!P10</f>
-        <v>2.6201018685955381E-3</v>
+        <v>2.6201018685955376E-3</v>
       </c>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
@@ -5376,12 +5422,12 @@
     <row r="29" spans="2:15">
       <c r="B29" s="28"/>
       <c r="C29" t="str">
-        <f>Pigments!B11</f>
+        <f>Pigments!B12</f>
         <v>Neoxanthin</v>
       </c>
       <c r="D29" s="8">
-        <f>Pigments!P11</f>
-        <v>4.9700000000000005E-4</v>
+        <f>Pigments!P12</f>
+        <v>4.9699999999999994E-4</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
@@ -5411,7 +5457,7 @@
       </c>
       <c r="G30" s="29">
         <f>F30/$F$91</f>
-        <v>0.22259965355161865</v>
+        <v>0.2227426479328308</v>
       </c>
       <c r="H30" s="29">
         <f>SUM(D30:D32)</f>
@@ -5498,7 +5544,7 @@
       </c>
       <c r="G34" s="29">
         <f>F34/$F$91</f>
-        <v>1.957526347716493E-3</v>
+        <v>1.9587838306655099E-3</v>
       </c>
       <c r="H34" s="29">
         <f>SUM(D34:D38)</f>
@@ -5601,7 +5647,7 @@
       </c>
       <c r="G39" s="29">
         <f>F39/$F$91</f>
-        <v>0.23312435888244259</v>
+        <v>0.23327411416243518</v>
       </c>
       <c r="H39" s="29">
         <f>SUM(D39:D58)</f>
@@ -5944,7 +5990,7 @@
       </c>
       <c r="G59" s="29">
         <f>F59/$F$91</f>
-        <v>2.8395986803457691E-2</v>
+        <v>2.8414227921523615E-2</v>
       </c>
       <c r="H59" s="29">
         <f>E59</f>
@@ -6031,7 +6077,7 @@
       </c>
       <c r="G63" s="29">
         <f>F63/$F$91</f>
-        <v>1.4197910932899335E-2</v>
+        <v>1.4207031438955669E-2</v>
       </c>
       <c r="H63" s="29">
         <f>E63</f>
@@ -6106,23 +6152,23 @@
       </c>
       <c r="D67" s="8">
         <f>Cofactors!J4</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E67" s="29">
         <f>SUM(D67:D90)</f>
-        <v>2.7146208493989517E-2</v>
+        <v>2.669404786076043E-2</v>
       </c>
       <c r="F67" s="29">
         <f>E67</f>
-        <v>2.7146208493989517E-2</v>
+        <v>2.669404786076043E-2</v>
       </c>
       <c r="G67" s="29">
         <f>F67/$F$91</f>
-        <v>3.8541802933115848E-2</v>
+        <v>3.7924177893016414E-2</v>
       </c>
       <c r="H67" s="29">
         <f>E67</f>
-        <v>2.7146208493989517E-2</v>
+        <v>2.669404786076043E-2</v>
       </c>
       <c r="I67" s="28" t="e">
         <f>H67/$H$91</f>
@@ -6143,7 +6189,7 @@
       </c>
       <c r="D68" s="8">
         <f>Cofactors!J5</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E68" s="29"/>
       <c r="F68" s="29"/>
@@ -6159,7 +6205,7 @@
       </c>
       <c r="D69" s="8">
         <f>Cofactors!J6</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
@@ -6175,7 +6221,7 @@
       </c>
       <c r="D70" s="8">
         <f>Cofactors!J7</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E70" s="29"/>
       <c r="F70" s="29"/>
@@ -6191,7 +6237,7 @@
       </c>
       <c r="D71" s="8">
         <f>Cofactors!J8</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E71" s="29"/>
       <c r="F71" s="29"/>
@@ -6207,7 +6253,7 @@
       </c>
       <c r="D72" s="8">
         <f>Cofactors!J9</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E72" s="29"/>
       <c r="F72" s="29"/>
@@ -6223,7 +6269,7 @@
       </c>
       <c r="D73" s="8">
         <f>Cofactors!J10</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E73" s="29"/>
       <c r="F73" s="29"/>
@@ -6239,7 +6285,7 @@
       </c>
       <c r="D74" s="8">
         <f>Cofactors!J11</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E74" s="29"/>
       <c r="F74" s="29"/>
@@ -6255,7 +6301,7 @@
       </c>
       <c r="D75" s="8">
         <f>Cofactors!J12</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -6271,7 +6317,7 @@
       </c>
       <c r="D76" s="8">
         <f>Cofactors!J13</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E76" s="29"/>
       <c r="F76" s="29"/>
@@ -6287,7 +6333,7 @@
       </c>
       <c r="D77" s="8">
         <f>Cofactors!J14</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -6303,7 +6349,7 @@
       </c>
       <c r="D78" s="8">
         <f>Cofactors!J15</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E78" s="29"/>
       <c r="F78" s="29"/>
@@ -6319,7 +6365,7 @@
       </c>
       <c r="D79" s="8">
         <f>Cofactors!J16</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E79" s="29"/>
       <c r="F79" s="29"/>
@@ -6335,7 +6381,7 @@
       </c>
       <c r="D80" s="8">
         <f>Cofactors!J17</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E80" s="29"/>
       <c r="F80" s="29"/>
@@ -6351,7 +6397,7 @@
       </c>
       <c r="D81" s="8">
         <f>Cofactors!J18</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E81" s="29"/>
       <c r="F81" s="29"/>
@@ -6367,7 +6413,7 @@
       </c>
       <c r="D82" s="8">
         <f>Cofactors!J19</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E82" s="29"/>
       <c r="F82" s="29"/>
@@ -6383,7 +6429,7 @@
       </c>
       <c r="D83" s="8">
         <f>Cofactors!J20</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E83" s="29"/>
       <c r="F83" s="29"/>
@@ -6399,7 +6445,7 @@
       </c>
       <c r="D84" s="8">
         <f>Cofactors!J21</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E84" s="29"/>
       <c r="F84" s="29"/>
@@ -6415,7 +6461,7 @@
       </c>
       <c r="D85" s="8">
         <f>Cofactors!J22</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
@@ -6431,7 +6477,7 @@
       </c>
       <c r="D86" s="8">
         <f>Cofactors!J23</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E86" s="29"/>
       <c r="F86" s="29"/>
@@ -6447,7 +6493,7 @@
       </c>
       <c r="D87" s="8">
         <f>Cofactors!J24</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E87" s="29"/>
       <c r="F87" s="29"/>
@@ -6463,7 +6509,7 @@
       </c>
       <c r="D88" s="8">
         <f>Cofactors!J25</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E88" s="29"/>
       <c r="F88" s="29"/>
@@ -6479,7 +6525,7 @@
       </c>
       <c r="D89" s="8">
         <f>Cofactors!J26</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -6495,7 +6541,7 @@
       </c>
       <c r="D90" s="8">
         <f>Cofactors!J27</f>
-        <v>1.1310920205828963E-3</v>
+        <v>1.1122519941983515E-3</v>
       </c>
       <c r="E90" s="29"/>
       <c r="F90" s="29"/>
@@ -6506,15 +6552,15 @@
     <row r="91" spans="2:13">
       <c r="E91" s="8">
         <f>SUM(E6:E90)</f>
-        <v>1.0014958196164758</v>
+        <v>1.0010436589832468</v>
       </c>
       <c r="F91" s="8">
         <f>SUM(F6:F90)</f>
-        <v>0.70433156801455643</v>
+        <v>0.70387940738132737</v>
       </c>
       <c r="G91" s="8">
         <f>SUM(G6:G90)</f>
-        <v>1</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H91" s="8" t="e">
         <f>SUM(H6:H90)</f>
@@ -6533,6 +6579,48 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="I6:I17"/>
+    <mergeCell ref="B6:B17"/>
+    <mergeCell ref="E6:E17"/>
+    <mergeCell ref="F6:F17"/>
+    <mergeCell ref="G6:G17"/>
+    <mergeCell ref="H6:H17"/>
+    <mergeCell ref="I22:I29"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:F29"/>
+    <mergeCell ref="G22:G29"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="I34:I38"/>
+    <mergeCell ref="B30:B33"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="F34:F38"/>
+    <mergeCell ref="G34:G38"/>
+    <mergeCell ref="H34:H38"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="B39:B58"/>
+    <mergeCell ref="E39:E58"/>
+    <mergeCell ref="F39:F58"/>
+    <mergeCell ref="G39:G58"/>
+    <mergeCell ref="H39:H58"/>
+    <mergeCell ref="I39:I58"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="E59:E62"/>
+    <mergeCell ref="F59:F62"/>
+    <mergeCell ref="G59:G62"/>
+    <mergeCell ref="H59:H62"/>
     <mergeCell ref="I67:I90"/>
     <mergeCell ref="B63:B66"/>
     <mergeCell ref="E63:E66"/>
@@ -6545,48 +6633,6 @@
     <mergeCell ref="F67:F90"/>
     <mergeCell ref="G67:G90"/>
     <mergeCell ref="H67:H90"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="B39:B58"/>
-    <mergeCell ref="E39:E58"/>
-    <mergeCell ref="F39:F58"/>
-    <mergeCell ref="G39:G58"/>
-    <mergeCell ref="H39:H58"/>
-    <mergeCell ref="I39:I58"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="E59:E62"/>
-    <mergeCell ref="F59:F62"/>
-    <mergeCell ref="G59:G62"/>
-    <mergeCell ref="H59:H62"/>
-    <mergeCell ref="I34:I38"/>
-    <mergeCell ref="B30:B33"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="E34:E38"/>
-    <mergeCell ref="F34:F38"/>
-    <mergeCell ref="G34:G38"/>
-    <mergeCell ref="H34:H38"/>
-    <mergeCell ref="I22:I29"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:F29"/>
-    <mergeCell ref="G22:G29"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="I6:I17"/>
-    <mergeCell ref="B6:B17"/>
-    <mergeCell ref="E6:E17"/>
-    <mergeCell ref="F6:F17"/>
-    <mergeCell ref="G6:G17"/>
-    <mergeCell ref="H6:H17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20443,7 +20489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3052ACEE-4180-40AA-90A3-9877406B1F04}">
   <dimension ref="B6:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -21017,10 +21063,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0B1A99-6869-4CA8-8AFF-CDE465AFCC99}">
-  <dimension ref="A2:T36"/>
+  <dimension ref="A2:W37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21031,21 +21077,23 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="17.140625" customWidth="1"/>
     <col min="16" max="16" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:23">
       <c r="R2" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:23">
       <c r="B3" t="s">
         <v>107</v>
       </c>
@@ -21103,8 +21151,17 @@
       <c r="T3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3" t="s">
+        <v>543</v>
+      </c>
+      <c r="V3" t="s">
+        <v>544</v>
+      </c>
+      <c r="W3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="B4" s="19" t="s">
         <v>297</v>
       </c>
@@ -21133,43 +21190,44 @@
         <v>6.6727178510311829E-3</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L11" si="0">K4/$K$12</f>
-        <v>0.30917917938433809</v>
+        <f>K4/$K$13</f>
+        <v>0.29848699842663001</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M11" si="1">L4*D4</f>
-        <v>276.24819580893285</v>
+        <f>L4*D4</f>
+        <v>266.69484973721126</v>
       </c>
       <c r="N4" s="19">
-        <f t="shared" ref="N4:N11" si="2">L4/$M$12*1000</f>
-        <v>0.41731015809006133</v>
+        <f t="shared" ref="N4:N12" si="0">L4/$M$13*1000</f>
+        <v>0.40583397816865824</v>
       </c>
       <c r="O4" s="8">
-        <f t="shared" ref="O4:O11" si="3">K4*D4</f>
+        <f>K4*D4</f>
         <v>5.9620000000000006</v>
       </c>
       <c r="P4">
         <f>N4*D4*'Macromolecular Composition'!$H$12/1000</f>
-        <v>5.9620000000000012E-3</v>
+        <v>5.9619999999999994E-3</v>
       </c>
       <c r="Q4">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>372.8620358417308</v>
-      </c>
-      <c r="R4">
+        <v>362.60819531993627</v>
+      </c>
+      <c r="T4" s="8"/>
+      <c r="U4" s="31">
         <f>Table7[[#This Row],[g/gDW]]</f>
-        <v>5.9620000000000012E-3</v>
-      </c>
-      <c r="S4">
-        <f>Table7[[#This Row],[g/gDW2]]/$R$12</f>
-        <v>0.52191293148529772</v>
-      </c>
-      <c r="T4" s="8">
-        <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>0.58412910677724939</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>5.9619999999999994E-3</v>
+      </c>
+      <c r="V4" s="31">
+        <f>Table7[[#This Row],[g/gDW22]]/$U$13</f>
+        <v>0.50204109071152725</v>
+      </c>
+      <c r="W4" s="31">
+        <f>Table7[[#This Row],[gM/gMM3]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
+        <v>0.56188838442502065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="B5" s="19" t="s">
         <v>299</v>
       </c>
@@ -21183,7 +21241,7 @@
         <v>3.2839999999999998</v>
       </c>
       <c r="F5">
-        <f>AVERAGE(K19:K23)</f>
+        <f>AVERAGE(K20:K24)</f>
         <v>0.72244067796610045</v>
       </c>
       <c r="G5">
@@ -21206,43 +21264,44 @@
         <v>4.7598896126920297E-3</v>
       </c>
       <c r="L5">
+        <f t="shared" ref="L5:L12" si="1">K5/$K$13</f>
+        <v>0.21292151040298779</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M11" si="2">L5*D5</f>
+        <v>193.22041534917534</v>
+      </c>
+      <c r="N5" s="19">
         <f t="shared" si="0"/>
-        <v>0.22054862760078048</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="1"/>
-        <v>200.14181446044927</v>
-      </c>
-      <c r="N5" s="19">
-        <f t="shared" si="2"/>
-        <v>0.29768234340326355</v>
+        <v>0.28949597154987711</v>
       </c>
       <c r="O5" s="8">
-        <f t="shared" si="3"/>
+        <f>K5*D5</f>
         <v>4.3194689265536681</v>
       </c>
       <c r="P5">
         <f>N5*D5*'Macromolecular Composition'!$H$12/1000</f>
-        <v>4.3194689265536679E-3</v>
+        <v>4.319468926553667E-3</v>
       </c>
       <c r="Q5">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>270.13854037401808</v>
-      </c>
-      <c r="R5">
+        <v>262.70963304229582</v>
+      </c>
+      <c r="T5" s="8"/>
+      <c r="U5" s="31">
         <f>Table7[[#This Row],[g/gDW]]</f>
-        <v>4.3194689265536679E-3</v>
-      </c>
-      <c r="S5">
-        <f>Table7[[#This Row],[g/gDW2]]/$R$12</f>
-        <v>0.37812591243161292</v>
-      </c>
-      <c r="T5" s="8">
-        <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>0.4166802987766714</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>4.319468926553667E-3</v>
+      </c>
+      <c r="V5" s="31">
+        <f>Table7[[#This Row],[g/gDW22]]/$U$13</f>
+        <v>0.36372876403581905</v>
+      </c>
+      <c r="W5" s="31">
+        <f>Table7[[#This Row],[gM/gMM3]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
+        <v>0.40081519168439717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="B6" s="19" t="s">
         <v>301</v>
       </c>
@@ -21264,19 +21323,19 @@
         <v>7.5555851417920391E-4</v>
       </c>
       <c r="L6">
+        <f t="shared" si="1"/>
+        <v>3.3797981282571846E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>20.30853099307177</v>
+      </c>
+      <c r="N6" s="19">
         <f t="shared" si="0"/>
-        <v>3.5008667623294708E-2</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="1"/>
-        <v>21.036008201485323</v>
-      </c>
-      <c r="N6" s="19">
-        <f t="shared" si="2"/>
-        <v>4.7252446459981737E-2</v>
+        <v>4.5952987132696008E-2</v>
       </c>
       <c r="O6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="O6:O12" si="3">K6*D6</f>
         <v>0.45400000000000007</v>
       </c>
       <c r="P6">
@@ -21285,22 +21344,34 @@
       </c>
       <c r="Q6">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>28.393050028873827</v>
+        <v>27.612230908294375</v>
       </c>
       <c r="R6">
         <f>Table7[[#This Row],[g/gDW]]</f>
         <v>4.5400000000000003E-4</v>
       </c>
       <c r="S6">
-        <f>Table7[[#This Row],[g/gDW2]]/$R$12</f>
-        <v>3.9743118231185023E-2</v>
+        <f>Table7[[#This Row],[g/gDW2]]/$R$13</f>
+        <v>0.28480859111585771</v>
       </c>
       <c r="T6" s="8">
         <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>6.6141522818507895E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>0.47398580601094681</v>
+      </c>
+      <c r="U6" s="31">
+        <f>Table7[[#This Row],[g/gDW]]</f>
+        <v>4.5400000000000003E-4</v>
+      </c>
+      <c r="V6" s="31">
+        <f>Table7[[#This Row],[g/gDW22]]/$U$13</f>
+        <v>3.8229898554685247E-2</v>
+      </c>
+      <c r="W6" s="31">
+        <f>Table7[[#This Row],[gM/gMM3]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
+        <v>6.3623183588545545E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="B7" s="19" t="s">
         <v>303</v>
       </c>
@@ -21311,7 +21382,7 @@
         <v>536.87</v>
       </c>
       <c r="F7">
-        <f>AVERAGE(M19:M23)</f>
+        <f>AVERAGE(M20:M24)</f>
         <v>0.3532730560578658</v>
       </c>
       <c r="G7">
@@ -21330,35 +21401,35 @@
         <v>1.8126970032683229E-3</v>
       </c>
       <c r="L7">
+        <f t="shared" si="1"/>
+        <v>8.1086372845645488E-2</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>43.532840989641691</v>
+      </c>
+      <c r="N7" s="19">
         <f t="shared" si="0"/>
-        <v>8.3990989047489667E-2</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="1"/>
-        <v>45.092242289925778</v>
-      </c>
-      <c r="N7" s="19">
-        <f t="shared" si="2"/>
-        <v>0.11336563149997171</v>
+        <v>0.11024803572911492</v>
       </c>
       <c r="O7" s="8">
-        <f t="shared" si="3"/>
+        <f>K7*D7</f>
         <v>0.9731826401446646</v>
       </c>
       <c r="P7">
         <f>N7*D7*'Macromolecular Composition'!$H$12/1000</f>
-        <v>9.7318264014466455E-4</v>
+        <v>9.7318264014466434E-4</v>
       </c>
       <c r="Q7">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>60.862606583389812</v>
-      </c>
-      <c r="T7" s="8">
-        <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>59.188862941889923</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="31"/>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
         <v>452</v>
       </c>
@@ -21376,16 +21447,16 @@
         <v>1.8126970032683229E-3</v>
       </c>
       <c r="L8">
+        <f t="shared" si="1"/>
+        <v>8.1086372845645488E-2</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>43.532840989641691</v>
+      </c>
+      <c r="N8" s="19">
         <f t="shared" si="0"/>
-        <v>8.3990989047489667E-2</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="1"/>
-        <v>45.092242289925778</v>
-      </c>
-      <c r="N8" s="19">
-        <f t="shared" si="2"/>
-        <v>0.11336563149997171</v>
+        <v>0.11024803572911492</v>
       </c>
       <c r="O8" s="8">
         <f t="shared" si="3"/>
@@ -21393,18 +21464,18 @@
       </c>
       <c r="P8">
         <f>N8*D8*'Macromolecular Composition'!$H$12/1000</f>
-        <v>9.7318264014466455E-4</v>
+        <v>9.7318264014466434E-4</v>
       </c>
       <c r="Q8">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>60.862606583389812</v>
-      </c>
-      <c r="T8" s="8">
-        <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>59.188862941889923</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="31"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31"/>
+    </row>
+    <row r="9" spans="1:23">
       <c r="B9" s="19" t="s">
         <v>305</v>
       </c>
@@ -21418,7 +21489,7 @@
         <v>0.159</v>
       </c>
       <c r="F9">
-        <f>AVERAGE(Q19:Q23)</f>
+        <f>AVERAGE(Q20:Q24)</f>
         <v>2.227848101265819E-2</v>
       </c>
       <c r="H9">
@@ -21434,16 +21505,16 @@
         <v>3.35558298873736E-4</v>
       </c>
       <c r="L9">
+        <f t="shared" si="1"/>
+        <v>1.5010343860483935E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>8.5390844153521002</v>
+      </c>
+      <c r="N9" s="19">
         <f t="shared" si="0"/>
-        <v>1.554803331978937E-2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>8.8449651949617767</v>
-      </c>
-      <c r="N9" s="19">
-        <f t="shared" si="2"/>
-        <v>2.0985734730233001E-2</v>
+        <v>2.0408619453075007E-2</v>
       </c>
       <c r="O9" s="8">
         <f t="shared" si="3"/>
@@ -21451,26 +21522,38 @@
       </c>
       <c r="P9">
         <f>N9*D9*'Macromolecular Composition'!$H$12/1000</f>
-        <v>1.9089240506329098E-4</v>
+        <v>1.9089240506329092E-4</v>
       </c>
       <c r="Q9">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>11.93836477333495</v>
+        <v>11.610055434465311</v>
       </c>
       <c r="R9">
         <f>Table7[[#This Row],[g/gDW]]</f>
-        <v>1.9089240506329098E-4</v>
+        <v>1.9089240506329092E-4</v>
       </c>
       <c r="S9">
-        <f>Table7[[#This Row],[g/gDW2]]/$R$12</f>
-        <v>1.6710703576796555E-2</v>
+        <f>Table7[[#This Row],[g/gDW2]]/$R$13</f>
+        <v>0.11975285669778306</v>
       </c>
       <c r="T9" s="8">
         <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>2.9374742611440997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>0.21050635757590891</v>
+      </c>
+      <c r="U9" s="31">
+        <f>Table7[[#This Row],[g/gDW]]</f>
+        <v>1.9089240506329092E-4</v>
+      </c>
+      <c r="V9" s="31">
+        <f>Table7[[#This Row],[g/gDW22]]/$U$13</f>
+        <v>1.6074443348963647E-2</v>
+      </c>
+      <c r="W9" s="31">
+        <f>Table7[[#This Row],[gM/gMM3]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
+        <v>2.8256298954021316E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="B10" s="19" t="s">
         <v>307</v>
       </c>
@@ -21484,7 +21567,7 @@
         <v>2.1230000000000002</v>
       </c>
       <c r="F10">
-        <f>AVERAGE(O19:O23)</f>
+        <f>AVERAGE(O20:O24)</f>
         <v>0.49273056057866144</v>
       </c>
       <c r="G10">
@@ -21507,16 +21590,16 @@
         <v>4.6057894079321584E-3</v>
       </c>
       <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0.2060282311421848</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>117.20356828937827</v>
+      </c>
+      <c r="N10" s="19">
         <f t="shared" si="0"/>
-        <v>0.21340842237791877</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>121.40194800991797</v>
-      </c>
-      <c r="N10" s="19">
-        <f t="shared" si="2"/>
-        <v>0.2880449539248347</v>
+        <v>0.28012361375946954</v>
       </c>
       <c r="O10" s="8">
         <f t="shared" si="3"/>
@@ -21524,272 +21607,405 @@
       </c>
       <c r="P10">
         <f>N10*D10*'Macromolecular Composition'!$H$12/1000</f>
-        <v>2.6201018685955381E-3</v>
+        <v>2.6201018685955376E-3</v>
       </c>
       <c r="Q10">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>163.8605362021562</v>
-      </c>
-      <c r="T10" s="8">
-        <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>159.35431233240871</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="B11" s="19" t="s">
-        <v>309</v>
+        <v>535</v>
       </c>
       <c r="C11" t="s">
-        <v>310</v>
+        <v>536</v>
       </c>
       <c r="D11">
-        <v>600.87019999999995</v>
-      </c>
-      <c r="E11">
-        <v>0.497</v>
-      </c>
-      <c r="H11">
-        <f>E11/D11</f>
-        <v>8.2713371373717654E-4</v>
+        <v>584.87</v>
       </c>
       <c r="K11">
-        <f>AVERAGE(H11:J11)</f>
-        <v>8.2713371373717654E-4</v>
+        <v>7.7309595846781565E-4</v>
       </c>
       <c r="L11">
+        <f t="shared" si="1"/>
+        <v>3.4582474081854976E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>20.226251616254519</v>
+      </c>
+      <c r="N11" s="19">
         <f t="shared" si="0"/>
-        <v>3.8325091598899248E-2</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>23.028405454048908</v>
-      </c>
-      <c r="N11" s="19">
-        <f t="shared" si="2"/>
-        <v>5.172874210288074E-2</v>
+        <v>4.7019612597979037E-2</v>
       </c>
       <c r="O11" s="8">
         <f t="shared" si="3"/>
-        <v>0.497</v>
+        <v>0.45216063322907135</v>
       </c>
       <c r="P11">
         <f>N11*D11*'Macromolecular Composition'!$H$12/1000</f>
-        <v>4.9700000000000005E-4</v>
+        <v>4.5216063322907129E-4</v>
       </c>
       <c r="Q11">
         <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
-        <v>31.08225961310637</v>
+        <v>27.500360820179999</v>
       </c>
       <c r="R11">
         <f>Table7[[#This Row],[g/gDW]]</f>
-        <v>4.9700000000000005E-4</v>
+        <v>4.5216063322907129E-4</v>
       </c>
       <c r="S11">
-        <f>Table7[[#This Row],[g/gDW2]]/$R$12</f>
-        <v>4.3507334275107834E-2</v>
-      </c>
-      <c r="T11" s="8">
+        <f>Table7[[#This Row],[g/gDW2]]/$R$13</f>
+        <v>0.28365469803529925</v>
+      </c>
+      <c r="T11">
         <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
-        <v>7.2407209202765971E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="B12" t="s">
+        <v>0.48498760072374925</v>
+      </c>
+      <c r="U11" s="31">
+        <f>Table7[[#This Row],[g/gDW]]</f>
+        <v>4.5216063322907129E-4</v>
+      </c>
+      <c r="V11" s="31">
+        <f>Table7[[#This Row],[g/gDW22]]/$U$13</f>
+        <v>3.8075011318875848E-2</v>
+      </c>
+      <c r="W11" s="31">
+        <f>Table7[[#This Row],[gM/gMM3]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
+        <v>6.5099956090884897E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="B12" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D12">
+        <v>600.87019999999995</v>
+      </c>
+      <c r="E12">
+        <v>0.497</v>
+      </c>
+      <c r="H12">
+        <f>E12/D12</f>
+        <v>8.2713371373717654E-4</v>
+      </c>
+      <c r="K12">
+        <f>AVERAGE(H12:J12)</f>
+        <v>8.2713371373717654E-4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>3.6999715111995596E-2</v>
+      </c>
+      <c r="M12">
+        <f>L12*D12</f>
+        <v>22.232026219287814</v>
+      </c>
+      <c r="N12" s="19">
+        <f t="shared" si="0"/>
+        <v>5.0306183030277479E-2</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="3"/>
+        <v>0.497</v>
+      </c>
+      <c r="P12">
+        <f>N12*D12*'Macromolecular Composition'!$H$12/1000</f>
+        <v>4.9699999999999994E-4</v>
+      </c>
+      <c r="Q12">
+        <f>Table7[[#This Row],[mmol M/ gMM]]*Table7[[#This Row],[Mol.Weight]]</f>
+        <v>30.227486258639434</v>
+      </c>
+      <c r="R12">
+        <f>Table7[[#This Row],[g/gDW]]</f>
+        <v>4.9699999999999994E-4</v>
+      </c>
+      <c r="S12">
+        <f>Table7[[#This Row],[g/gDW2]]/$R$13</f>
+        <v>0.31178385415106002</v>
+      </c>
+      <c r="T12" s="8">
+        <f>Table7[[#This Row],[gM/gMM]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
+        <v>0.51888719751963075</v>
+      </c>
+      <c r="U12" s="31">
+        <f>Table7[[#This Row],[g/gDW]]</f>
+        <v>4.9699999999999994E-4</v>
+      </c>
+      <c r="V12" s="31">
+        <f>Table7[[#This Row],[g/gDW22]]/$U$13</f>
+        <v>4.1850792030128994E-2</v>
+      </c>
+      <c r="W12" s="31">
+        <f>Table7[[#This Row],[gM/gMM3]]/Table7[[#This Row],[Mol.Weight]]*1000</f>
+        <v>6.9650303892802468E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" t="s">
         <v>125</v>
       </c>
-      <c r="E12">
-        <f t="shared" ref="E12:Q12" si="4">SUM(E4:E11)</f>
+      <c r="E13">
+        <f t="shared" ref="E13:T13" si="4">SUM(E4:E12)</f>
         <v>14.821000000000002</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="4"/>
         <v>1.5907227756152857</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f t="shared" si="4"/>
         <v>7.24</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <f t="shared" si="4"/>
         <v>1.8506884783440789E-2</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <f t="shared" si="4"/>
         <v>2.3594420387001019E-2</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <f t="shared" si="4"/>
         <v>8.8457644322302662E-3</v>
       </c>
-      <c r="K12">
+      <c r="K13">
+        <f>SUM(K4:K12)</f>
+        <v>2.2355137363449951E-2</v>
+      </c>
+      <c r="L13">
+        <f>SUM(L4:L12)</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="4"/>
-        <v>2.1582041404982134E-2</v>
-      </c>
-      <c r="L12">
+        <v>735.49040859901459</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="4"/>
+        <v>1.3596370371502622</v>
+      </c>
+      <c r="O13" s="8">
+        <f>SUM(O4:O12)</f>
+        <v>16.441989113730898</v>
+      </c>
+      <c r="P13">
+        <f>SUM(P4:P12)</f>
+        <v>1.6441989113730893E-2</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="4"/>
+        <v>999.99999999999989</v>
+      </c>
+      <c r="R13">
+        <f>SUM(R4:R12)</f>
+        <v>1.5940530382923621E-3</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="T13">
         <f t="shared" si="4"/>
-        <v>740.88582170964776</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>1.3497356417111983</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="4"/>
-        <v>15.989828480501826</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
-        <v>1.5989828480501827E-2</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>999.99999999999977</v>
-      </c>
-      <c r="R12">
-        <f>SUM(R4:R11)</f>
-        <v>1.142336133161696E-2</v>
-      </c>
-      <c r="S12">
-        <f t="shared" ref="S12:T12" si="5">SUM(S4:S11)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="5"/>
-        <v>1.1687328801866355</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>290</v>
+        <v>1.6883669618302357</v>
+      </c>
+      <c r="U13" s="31">
+        <f>SUM(U4:U12)</f>
+        <v>1.1875521964846028E-2</v>
+      </c>
+      <c r="V13" s="31">
+        <f t="shared" ref="V13:W13" si="5">SUM(V4:V12)</f>
+        <v>1</v>
+      </c>
+      <c r="W13" s="31">
+        <f>SUM(W4:W12)</f>
+        <v>1.189333318635672</v>
       </c>
     </row>
     <row r="17" spans="2:19">
       <c r="B17" t="s">
-        <v>291</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>292</v>
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:19">
       <c r="B18" t="s">
-        <v>293</v>
-      </c>
-      <c r="C18" t="s">
-        <v>401</v>
+        <v>291</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="2:19">
       <c r="B19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C19" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" t="s">
         <v>400</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>294</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>0.58271186440677902</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>0.18951175406871601</v>
       </c>
-      <c r="O19">
+      <c r="O20">
         <v>0.44267631103074101</v>
       </c>
-      <c r="Q19">
+      <c r="Q20">
         <v>1.4466546112115701E-2</v>
       </c>
-      <c r="S19">
+      <c r="S20">
         <v>4.3399638336347199E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:19">
-      <c r="K20">
-        <v>0.88169491525423704</v>
-      </c>
-      <c r="M20">
-        <v>0.43978300180831797</v>
-      </c>
-      <c r="O20">
-        <v>0.54972875226039697</v>
-      </c>
-      <c r="Q20">
-        <v>8.6799276672694502E-3</v>
-      </c>
-      <c r="S20">
-        <v>8.6799276672694502E-3</v>
       </c>
     </row>
     <row r="21" spans="2:19">
       <c r="K21">
-        <v>0.69864406779661004</v>
+        <v>0.88169491525423704</v>
       </c>
       <c r="M21">
-        <v>0.25895117540687101</v>
+        <v>0.43978300180831797</v>
       </c>
       <c r="O21">
-        <v>0.40216998191681702</v>
+        <v>0.54972875226039697</v>
       </c>
       <c r="Q21">
-        <v>1.8806509945750401E-2</v>
+        <v>8.6799276672694502E-3</v>
       </c>
       <c r="S21">
-        <v>1.15732368896926E-2</v>
+        <v>8.6799276672694502E-3</v>
       </c>
     </row>
     <row r="22" spans="2:19">
       <c r="K22">
-        <v>0.225762711864406</v>
+        <v>0.69864406779661004</v>
       </c>
       <c r="M22">
-        <v>0.13743218806509899</v>
+        <v>0.25895117540687101</v>
       </c>
       <c r="O22">
-        <v>0.26907775768535203</v>
+        <v>0.40216998191681702</v>
       </c>
       <c r="Q22">
-        <v>4.6292947558770198E-2</v>
+        <v>1.8806509945750401E-2</v>
       </c>
       <c r="S22">
-        <v>2.8933092224231499E-3</v>
+        <v>1.15732368896926E-2</v>
       </c>
     </row>
     <row r="23" spans="2:19">
       <c r="K23">
+        <v>0.225762711864406</v>
+      </c>
+      <c r="M23">
+        <v>0.13743218806509899</v>
+      </c>
+      <c r="O23">
+        <v>0.26907775768535203</v>
+      </c>
+      <c r="Q23">
+        <v>4.6292947558770198E-2</v>
+      </c>
+      <c r="S23">
+        <v>2.8933092224231499E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" t="s">
+        <v>535</v>
+      </c>
+      <c r="C24">
+        <f>K9/0.18-K9-K6</f>
+        <v>7.7309595846781565E-4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>537</v>
+      </c>
+      <c r="K24">
         <v>1.2233898305084701</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>0.74068716094032505</v>
       </c>
-      <c r="O23">
+      <c r="O24">
         <v>0.8</v>
       </c>
-      <c r="Q23">
+      <c r="Q24">
         <v>2.3146473779385199E-2</v>
       </c>
-      <c r="S23">
+      <c r="S24">
         <v>1.73598553345389E-2</v>
       </c>
     </row>
+    <row r="26" spans="2:19">
+      <c r="G26" t="s">
+        <v>540</v>
+      </c>
+      <c r="H26" t="s">
+        <v>539</v>
+      </c>
+      <c r="I26" t="s">
+        <v>541</v>
+      </c>
+      <c r="J26" t="s">
+        <v>542</v>
+      </c>
+    </row>
     <row r="27" spans="2:19">
-      <c r="O27" s="1"/>
+      <c r="F27" t="s">
+        <v>538</v>
+      </c>
+      <c r="G27">
+        <v>180</v>
+      </c>
+      <c r="H27">
+        <f>(N4*'Macromolecular Composition'!H12)+(N5*'Macromolecular Composition'!H12)</f>
+        <v>1.1432607463723213E-2</v>
+      </c>
+      <c r="I27">
+        <f>G27/1000*H27</f>
+        <v>2.0578693434701784E-3</v>
+      </c>
+      <c r="J27">
+        <f>I27*60*60*24</f>
+        <v>177.7999112758234</v>
+      </c>
+      <c r="K27" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="28" spans="2:19">
       <c r="O28" s="1"/>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="1"/>
+    <row r="29" spans="2:19">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C17" r:id="rId1" xr:uid="{31C10B41-B316-4A2D-AE77-BED37524A730}"/>
+    <hyperlink ref="C18" r:id="rId1" xr:uid="{31C10B41-B316-4A2D-AE77-BED37524A730}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
